--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngduc\Downloads\conversations\conversations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngduc\PycharmProjects\conversations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10960AB-6A2E-461A-A99E-B4F31FD62ED6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE147083-3F70-4C53-BC2C-25CEE37DF06D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="Note" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer Profile" sheetId="4" r:id="rId3"/>
+    <sheet name="Note" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="843">
   <si>
     <t>customer</t>
   </si>
@@ -2645,6 +2646,24 @@
   </si>
   <si>
     <t>Dạ mình ko đăng shopee bạn ạ</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Shipping addr</t>
+  </si>
+  <si>
+    <t>Pain points</t>
+  </si>
+  <si>
+    <t>Purchasing habits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivations </t>
   </si>
 </sst>
 </file>
@@ -3027,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C248" sqref="C248"/>
+    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,7 +3084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3085,7 +3104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3138,7 @@
         <v>1.6203703703703701E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3155,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3153,7 +3172,7 @@
         <v>3.0092592592592589E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3189,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3221,7 +3240,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3238,7 +3257,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3255,7 +3274,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>2.314814814814815E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -3374,7 +3393,7 @@
         <v>1.6203703703703701E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3408,7 +3427,7 @@
         <v>5.6712962962962967E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>1.9675925925925929E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3442,7 +3461,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3459,7 +3478,7 @@
         <v>2.314814814814815E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
@@ -3493,7 +3512,7 @@
         <v>7.1759259259259259E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
@@ -3510,7 +3529,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -3527,7 +3546,7 @@
         <v>3.2523148148148151E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3544,7 +3563,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3561,7 +3580,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3578,7 +3597,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -3595,7 +3614,7 @@
         <v>1.8402777777777779E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
@@ -3629,7 +3648,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -3646,7 +3665,7 @@
         <v>1.851851851851852E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -3663,7 +3682,7 @@
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -3680,7 +3699,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3765,7 +3784,7 @@
         <v>0.20666666666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>2.6620370370370372E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -3850,7 +3869,7 @@
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
@@ -3884,7 +3903,7 @@
         <v>3.2407407407407412E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
@@ -3918,7 +3937,7 @@
         <v>8.6805555555555551E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -3938,7 +3957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
@@ -3955,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -3972,7 +3991,7 @@
         <v>1.157407407407407E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,7 +4008,7 @@
         <v>1.041666666666667E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>1.3171296296296301E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4042,7 @@
         <v>5.7870370370370373E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
@@ -4060,7 +4079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4077,7 +4096,7 @@
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -4111,7 +4130,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
@@ -4128,7 +4147,7 @@
         <v>0.76322916666666663</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
@@ -4145,7 +4164,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
@@ -4162,7 +4181,7 @@
         <v>5.7870370370370373E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4195,7 @@
         <v>1.1435185185185191E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -4196,7 +4215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
@@ -4213,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -4230,7 +4249,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>23</v>
       </c>
@@ -4247,7 +4266,7 @@
         <v>1.157407407407407E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>68</v>
       </c>
@@ -4264,7 +4283,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,7 +4300,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -4301,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>67</v>
       </c>
@@ -4335,7 +4354,7 @@
         <v>5.7870370370370373E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4371,7 @@
         <v>1.215277777777778E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>73</v>
       </c>
@@ -4369,7 +4388,7 @@
         <v>2.314814814814815E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
@@ -4389,7 +4408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>67</v>
       </c>
@@ -4406,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
@@ -4440,7 +4459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>67</v>
       </c>
@@ -4457,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>74</v>
       </c>
@@ -4474,7 +4493,7 @@
         <v>1.041666666666667E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>78</v>
       </c>
@@ -4491,7 +4510,7 @@
         <v>4.6030092592592588E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>79</v>
       </c>
@@ -4508,7 +4527,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>80</v>
       </c>
@@ -4525,7 +4544,7 @@
         <v>5.3125000000000004E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,7 +4561,7 @@
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>82</v>
       </c>
@@ -4559,7 +4578,7 @@
         <v>1.157407407407407E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>2.3148148148148149E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>85</v>
       </c>
@@ -4610,7 +4629,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>86</v>
       </c>
@@ -4627,7 +4646,7 @@
         <v>1.9675925925925929E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>87</v>
       </c>
@@ -4644,7 +4663,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>88</v>
       </c>
@@ -4661,7 +4680,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>89</v>
       </c>
@@ -4698,7 +4717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>92</v>
       </c>
@@ -4715,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>93</v>
       </c>
@@ -4732,7 +4751,7 @@
         <v>1.041666666666667E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>94</v>
       </c>
@@ -4783,7 +4802,7 @@
         <v>5.5555555555555556E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
@@ -4800,7 +4819,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>23</v>
       </c>
@@ -4817,7 +4836,7 @@
         <v>2.6562499999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>96</v>
       </c>
@@ -4834,7 +4853,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>97</v>
       </c>
@@ -4851,7 +4870,7 @@
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>98</v>
       </c>
@@ -4868,7 +4887,7 @@
         <v>2.0833333333333329E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>99</v>
       </c>
@@ -4885,7 +4904,7 @@
         <v>3.5879629629629629E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>100</v>
       </c>
@@ -4902,7 +4921,7 @@
         <v>1.8518518518518519E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>101</v>
       </c>
@@ -4919,7 +4938,7 @@
         <v>4.1666666666666669E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>102</v>
       </c>
@@ -4936,7 +4955,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>103</v>
       </c>
@@ -4953,7 +4972,7 @@
         <v>1.9317129629629629E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
@@ -4970,7 +4989,7 @@
         <v>1.6712962962962961E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>105</v>
       </c>
@@ -5004,7 +5023,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>107</v>
       </c>
@@ -5021,7 +5040,7 @@
         <v>1.3657407407407409E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>108</v>
       </c>
@@ -5038,7 +5057,7 @@
         <v>0.1239583333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>109</v>
       </c>
@@ -5055,7 +5074,7 @@
         <v>8.2175925925925927E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>110</v>
       </c>
@@ -5072,7 +5091,7 @@
         <v>1.0300925925925931E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>111</v>
       </c>
@@ -5089,7 +5108,7 @@
         <v>1.7361111111111109E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>112</v>
       </c>
@@ -5140,7 +5159,7 @@
         <v>1.851851851851852E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>115</v>
       </c>
@@ -5157,7 +5176,7 @@
         <v>3.0092592592592589E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
@@ -5174,7 +5193,7 @@
         <v>1.7361111111111109E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>117</v>
       </c>
@@ -5225,7 +5244,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>120</v>
       </c>
@@ -5259,7 +5278,7 @@
         <v>1.157407407407407E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>122</v>
       </c>
@@ -5276,7 +5295,7 @@
         <v>4.2824074074074081E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>123</v>
       </c>
@@ -5293,7 +5312,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>124</v>
       </c>
@@ -5327,7 +5346,7 @@
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>126</v>
       </c>
@@ -5344,7 +5363,7 @@
         <v>7.0601851851851847E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>127</v>
       </c>
@@ -5378,7 +5397,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>129</v>
       </c>
@@ -5429,7 +5448,7 @@
         <v>2.4305555555555549E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>132</v>
       </c>
@@ -5446,7 +5465,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>133</v>
       </c>
@@ -5463,7 +5482,7 @@
         <v>3.9351851851851852E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>134</v>
       </c>
@@ -5497,7 +5516,7 @@
         <v>3.7037037037037041E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>136</v>
       </c>
@@ -5514,7 +5533,7 @@
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
@@ -5531,7 +5550,7 @@
         <v>2.0833333333333329E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>138</v>
       </c>
@@ -5585,7 +5604,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>141</v>
       </c>
@@ -5602,7 +5621,7 @@
         <v>1.701388888888889E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>142</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>146</v>
       </c>
@@ -5690,7 +5709,7 @@
         <v>1.5844907407407412E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>147</v>
       </c>
@@ -5707,7 +5726,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>148</v>
       </c>
@@ -5724,7 +5743,7 @@
         <v>7.291666666666667E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>149</v>
       </c>
@@ -5741,7 +5760,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>150</v>
       </c>
@@ -5792,7 +5811,7 @@
         <v>1.041666666666667E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>153</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>156</v>
       </c>
@@ -5863,7 +5882,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>157</v>
       </c>
@@ -5880,7 +5899,7 @@
         <v>2.6620370370370372E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>158</v>
       </c>
@@ -5897,7 +5916,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>159</v>
       </c>
@@ -5965,7 +5984,7 @@
         <v>2.0833333333333329E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>162</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>6.3657407407407413E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>163</v>
       </c>
@@ -6016,7 +6035,7 @@
         <v>2.6620370370370372E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>165</v>
       </c>
@@ -6033,7 +6052,7 @@
         <v>8.3333333333333339E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>166</v>
       </c>
@@ -6053,7 +6072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>168</v>
       </c>
@@ -6070,7 +6089,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>170</v>
       </c>
@@ -6104,7 +6123,7 @@
         <v>8.1828703703703709E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>172</v>
       </c>
@@ -6121,7 +6140,7 @@
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>173</v>
       </c>
@@ -6138,7 +6157,7 @@
         <v>0.90703703703703709</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>174</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>2.5462962962962961E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>23</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>179</v>
       </c>
@@ -6263,7 +6282,7 @@
         <v>5.9027777777777778E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>180</v>
       </c>
@@ -6280,7 +6299,7 @@
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>181</v>
       </c>
@@ -6297,7 +6316,7 @@
         <v>2.0370370370370369E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>182</v>
       </c>
@@ -6314,7 +6333,7 @@
         <v>6.875E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>183</v>
       </c>
@@ -6331,7 +6350,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>184</v>
       </c>
@@ -6348,7 +6367,7 @@
         <v>5.7870370370370367E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>185</v>
       </c>
@@ -6365,7 +6384,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>186</v>
       </c>
@@ -6436,7 +6455,7 @@
         <v>0.4854398148148148</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>190</v>
       </c>
@@ -6470,7 +6489,7 @@
         <v>2.3148148148148149E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>191</v>
       </c>
@@ -6487,7 +6506,7 @@
         <v>1.851851851851852E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
         <v>192</v>
       </c>
@@ -6504,7 +6523,7 @@
         <v>8.3333333333333339E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>193</v>
       </c>
@@ -6521,7 +6540,7 @@
         <v>1.851851851851852E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>194</v>
       </c>
@@ -6538,7 +6557,7 @@
         <v>3.9351851851851852E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>195</v>
       </c>
@@ -6555,7 +6574,7 @@
         <v>1.851851851851852E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>196</v>
       </c>
@@ -6572,7 +6591,7 @@
         <v>8.2175925925925927E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>197</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>5.7870370370370373E-5</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>200</v>
       </c>
@@ -6640,7 +6659,7 @@
         <v>3.4722222222222218E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
         <v>201</v>
       </c>
@@ -6657,7 +6676,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
         <v>202</v>
       </c>
@@ -6674,7 +6693,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
         <v>203</v>
       </c>
@@ -6691,7 +6710,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>204</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>4.2824074074074081E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>205</v>
       </c>
@@ -6725,7 +6744,7 @@
         <v>7.7546296296296293E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
         <v>206</v>
       </c>
@@ -6810,7 +6829,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
         <v>211</v>
       </c>
@@ -6827,7 +6846,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>212</v>
       </c>
@@ -6844,7 +6863,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>213</v>
       </c>
@@ -6895,7 +6914,7 @@
         <v>5.4398148148148144E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
         <v>215</v>
       </c>
@@ -6932,7 +6951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
         <v>217</v>
       </c>
@@ -6949,7 +6968,7 @@
         <v>0.60015046296296293</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>218</v>
       </c>
@@ -7000,7 +7019,7 @@
         <v>2.199074074074074E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>220</v>
       </c>
@@ -7034,7 +7053,7 @@
         <v>4.6296296296296287E-5</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
         <v>222</v>
       </c>
@@ -7051,7 +7070,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>223</v>
       </c>
@@ -7088,7 +7107,7 @@
         <v>7.8703703703703705E-4</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>226</v>
       </c>
@@ -7105,7 +7124,7 @@
         <v>4.861111111111111E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>227</v>
       </c>
@@ -7122,7 +7141,7 @@
         <v>0.47378472222222218</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>228</v>
       </c>
@@ -7173,7 +7192,7 @@
         <v>5.6782407407407413E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>231</v>
       </c>
@@ -7207,7 +7226,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>232</v>
       </c>
@@ -7224,7 +7243,7 @@
         <v>3.3564814814814812E-4</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>211</v>
       </c>
@@ -7241,7 +7260,7 @@
         <v>5.7870370370370373E-5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>233</v>
       </c>
@@ -7295,7 +7314,7 @@
         <v>2.314814814814815E-5</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
         <v>211</v>
       </c>
@@ -7322,8 +7341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="C630" sqref="C630"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7373,7 +7392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>237</v>
       </c>
@@ -7451,7 +7470,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>241</v>
       </c>
@@ -7489,7 +7508,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>243</v>
       </c>
@@ -7508,7 +7527,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>244</v>
       </c>
@@ -7546,7 +7565,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>245</v>
@@ -7565,7 +7584,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>246</v>
       </c>
@@ -7584,7 +7603,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>247</v>
       </c>
@@ -7603,7 +7622,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>248</v>
@@ -7622,7 +7641,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>249</v>
@@ -7641,7 +7660,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>250</v>
       </c>
@@ -7660,7 +7679,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>251</v>
@@ -7698,7 +7717,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>252</v>
@@ -7717,7 +7736,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>253</v>
       </c>
@@ -7736,7 +7755,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
@@ -7755,7 +7774,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>255</v>
@@ -7774,7 +7793,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>256</v>
@@ -7793,7 +7812,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>257</v>
@@ -7831,7 +7850,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>259</v>
@@ -7850,7 +7869,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>260</v>
@@ -7869,7 +7888,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
@@ -7888,7 +7907,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
@@ -7907,7 +7926,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>263</v>
       </c>
@@ -7926,7 +7945,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>264</v>
       </c>
@@ -7945,7 +7964,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>265</v>
@@ -7964,7 +7983,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>266</v>
       </c>
@@ -7983,7 +8002,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>267</v>
       </c>
@@ -8002,7 +8021,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>268</v>
@@ -8021,7 +8040,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>269</v>
@@ -8040,7 +8059,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>270</v>
@@ -8059,7 +8078,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>271</v>
@@ -8078,7 +8097,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>272</v>
@@ -8097,7 +8116,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>273</v>
@@ -8116,7 +8135,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>274</v>
       </c>
@@ -8135,7 +8154,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>275</v>
       </c>
@@ -8154,7 +8173,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
@@ -8173,7 +8192,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>277</v>
@@ -8192,7 +8211,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>278</v>
@@ -8211,7 +8230,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>279</v>
@@ -8230,7 +8249,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>280</v>
@@ -8270,7 +8289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>67</v>
@@ -8289,7 +8308,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>282</v>
       </c>
@@ -8308,7 +8327,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>283</v>
@@ -8327,7 +8346,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>284</v>
       </c>
@@ -8348,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>285</v>
@@ -8367,7 +8386,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>286</v>
@@ -8386,7 +8405,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>287</v>
@@ -8405,7 +8424,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>288</v>
@@ -8424,7 +8443,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>289</v>
       </c>
@@ -8443,7 +8462,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>290</v>
@@ -8462,7 +8481,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>291</v>
@@ -8481,7 +8500,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>292</v>
       </c>
@@ -8500,7 +8519,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>283</v>
@@ -8519,7 +8538,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>293</v>
       </c>
@@ -8538,7 +8557,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>294</v>
@@ -8557,7 +8576,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>295</v>
       </c>
@@ -8576,7 +8595,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>296</v>
@@ -8595,7 +8614,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>297</v>
@@ -8614,7 +8633,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>298</v>
@@ -8654,7 +8673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>67</v>
@@ -8673,7 +8692,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>300</v>
       </c>
@@ -8692,7 +8711,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>301</v>
@@ -8711,7 +8730,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>302</v>
       </c>
@@ -8732,7 +8751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>67</v>
@@ -8751,7 +8770,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>251</v>
@@ -8770,7 +8789,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>304</v>
@@ -8789,7 +8808,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -8808,7 +8827,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>305</v>
       </c>
@@ -8840,7 +8859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
@@ -8857,7 +8876,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>307</v>
@@ -8876,7 +8895,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>308</v>
       </c>
@@ -8895,7 +8914,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>309</v>
@@ -8914,7 +8933,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>310</v>
@@ -8933,7 +8952,7 @@
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>311</v>
       </c>
@@ -8952,7 +8971,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>312</v>
@@ -8971,7 +8990,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>313</v>
@@ -8990,7 +9009,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>314</v>
       </c>
@@ -9009,7 +9028,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>229</v>
@@ -9028,7 +9047,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>315</v>
@@ -9047,7 +9066,7 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>316</v>
@@ -9066,7 +9085,7 @@
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>317</v>
@@ -9085,7 +9104,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>318</v>
       </c>
@@ -9104,7 +9123,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -9123,7 +9142,7 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>320</v>
@@ -9142,7 +9161,7 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>321</v>
       </c>
@@ -9182,7 +9201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>322</v>
       </c>
@@ -9220,7 +9239,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>324</v>
@@ -9239,7 +9258,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>325</v>
@@ -9258,7 +9277,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>326</v>
@@ -9277,7 +9296,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>327</v>
@@ -9296,7 +9315,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
@@ -9313,7 +9332,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>328</v>
@@ -9332,7 +9351,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>329</v>
       </c>
@@ -9351,7 +9370,7 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>330</v>
@@ -9370,7 +9389,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>331</v>
@@ -9389,7 +9408,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>332</v>
       </c>
@@ -9408,7 +9427,7 @@
       </c>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>333</v>
@@ -9427,7 +9446,7 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>334</v>
       </c>
@@ -9448,7 +9467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>92</v>
@@ -9467,7 +9486,7 @@
       </c>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>336</v>
       </c>
@@ -9486,7 +9505,7 @@
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>337</v>
       </c>
@@ -9505,7 +9524,7 @@
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>338</v>
@@ -9524,7 +9543,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>339</v>
@@ -9543,7 +9562,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>340</v>
       </c>
@@ -9562,7 +9581,7 @@
       </c>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>341</v>
@@ -9581,7 +9600,7 @@
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>342</v>
@@ -9600,7 +9619,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
@@ -9617,7 +9636,7 @@
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>343</v>
@@ -9636,7 +9655,7 @@
       </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>344</v>
@@ -9655,7 +9674,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>345</v>
       </c>
@@ -9674,7 +9693,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>346</v>
       </c>
@@ -9693,7 +9712,7 @@
       </c>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>347</v>
       </c>
@@ -9712,7 +9731,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>231</v>
@@ -9731,7 +9750,7 @@
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>348</v>
       </c>
@@ -9750,7 +9769,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>349</v>
@@ -9769,7 +9788,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>350</v>
       </c>
@@ -9788,7 +9807,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>351</v>
@@ -9807,7 +9826,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>352</v>
       </c>
@@ -9826,7 +9845,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>353</v>
@@ -9845,7 +9864,7 @@
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>354</v>
@@ -9864,7 +9883,7 @@
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>355</v>
@@ -9883,7 +9902,7 @@
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>356</v>
       </c>
@@ -9902,7 +9921,7 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>357</v>
       </c>
@@ -9921,7 +9940,7 @@
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>353</v>
@@ -9940,7 +9959,7 @@
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>358</v>
@@ -9959,7 +9978,7 @@
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>359</v>
       </c>
@@ -9978,7 +9997,7 @@
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>360</v>
@@ -9997,7 +10016,7 @@
       </c>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>361</v>
@@ -10016,7 +10035,7 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -10035,7 +10054,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>362</v>
       </c>
@@ -10054,7 +10073,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>251</v>
@@ -10073,7 +10092,7 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>363</v>
       </c>
@@ -10092,7 +10111,7 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>364</v>
@@ -10111,7 +10130,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>365</v>
@@ -10130,7 +10149,7 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>366</v>
       </c>
@@ -10149,7 +10168,7 @@
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>367</v>
@@ -10168,7 +10187,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>368</v>
@@ -10187,7 +10206,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>369</v>
@@ -10206,7 +10225,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>365</v>
@@ -10225,7 +10244,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>370</v>
       </c>
@@ -10244,7 +10263,7 @@
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>138</v>
@@ -10263,7 +10282,7 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>371</v>
       </c>
@@ -10282,7 +10301,7 @@
       </c>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>372</v>
@@ -10301,7 +10320,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>373</v>
       </c>
@@ -10320,7 +10339,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>138</v>
@@ -10339,7 +10358,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>374</v>
       </c>
@@ -10371,7 +10390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>92</v>
@@ -10390,7 +10409,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>376</v>
@@ -10409,7 +10428,7 @@
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>378</v>
       </c>
@@ -10430,7 +10449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>92</v>
@@ -10468,7 +10487,7 @@
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>380</v>
       </c>
@@ -10506,7 +10525,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>382</v>
@@ -10525,7 +10544,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>383</v>
       </c>
@@ -10544,7 +10563,7 @@
       </c>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>384</v>
       </c>
@@ -10563,7 +10582,7 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>385</v>
       </c>
@@ -10582,7 +10601,7 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>386</v>
@@ -10601,7 +10620,7 @@
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>387</v>
@@ -10620,7 +10639,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>388</v>
@@ -10679,7 +10698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>391</v>
       </c>
@@ -10698,7 +10717,7 @@
       </c>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>392</v>
@@ -10717,7 +10736,7 @@
       </c>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>393</v>
       </c>
@@ -10736,7 +10755,7 @@
       </c>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>394</v>
@@ -10755,7 +10774,7 @@
       </c>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>395</v>
@@ -10774,7 +10793,7 @@
       </c>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>396</v>
@@ -10793,7 +10812,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>397</v>
@@ -10812,7 +10831,7 @@
       </c>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>398</v>
@@ -10831,7 +10850,7 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>399</v>
@@ -10850,7 +10869,7 @@
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>400</v>
       </c>
@@ -10871,7 +10890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>402</v>
@@ -10890,7 +10909,7 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>403</v>
@@ -10909,7 +10928,7 @@
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>404</v>
@@ -10949,7 +10968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>405</v>
       </c>
@@ -10968,7 +10987,7 @@
       </c>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>406</v>
@@ -10987,7 +11006,7 @@
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>407</v>
@@ -11006,7 +11025,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>408</v>
       </c>
@@ -11027,7 +11046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>410</v>
@@ -11067,7 +11086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>412</v>
@@ -11086,7 +11105,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>413</v>
       </c>
@@ -11124,7 +11143,7 @@
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>414</v>
       </c>
@@ -11143,7 +11162,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>415</v>
@@ -11162,7 +11181,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>416</v>
       </c>
@@ -11181,7 +11200,7 @@
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>406</v>
@@ -11200,7 +11219,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>417</v>
       </c>
@@ -11219,7 +11238,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>418</v>
       </c>
@@ -11238,7 +11257,7 @@
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>419</v>
@@ -11257,7 +11276,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>420</v>
@@ -11276,7 +11295,7 @@
       </c>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>421</v>
       </c>
@@ -11295,7 +11314,7 @@
       </c>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>422</v>
@@ -11314,7 +11333,7 @@
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>423</v>
       </c>
@@ -11333,7 +11352,7 @@
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>424</v>
@@ -11352,7 +11371,7 @@
       </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>425</v>
@@ -11371,7 +11390,7 @@
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>426</v>
@@ -11390,7 +11409,7 @@
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
@@ -11409,7 +11428,7 @@
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>285</v>
@@ -11428,7 +11447,7 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>428</v>
       </c>
@@ -11447,7 +11466,7 @@
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>23</v>
@@ -11466,7 +11485,7 @@
       </c>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>429</v>
@@ -11485,7 +11504,7 @@
       </c>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>430</v>
       </c>
@@ -11504,7 +11523,7 @@
       </c>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>431</v>
@@ -11523,7 +11542,7 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>432</v>
@@ -11542,7 +11561,7 @@
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>433</v>
@@ -11582,7 +11601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>435</v>
       </c>
@@ -11601,7 +11620,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>436</v>
@@ -11620,7 +11639,7 @@
       </c>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
         <v>437</v>
@@ -11639,7 +11658,7 @@
       </c>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>438</v>
@@ -11658,7 +11677,7 @@
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>439</v>
@@ -11696,7 +11715,7 @@
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>441</v>
       </c>
@@ -11774,7 +11793,7 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>442</v>
       </c>
@@ -11793,7 +11812,7 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>443</v>
@@ -11812,7 +11831,7 @@
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>444</v>
@@ -11831,7 +11850,7 @@
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>445</v>
@@ -11850,7 +11869,7 @@
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>446</v>
       </c>
@@ -11869,7 +11888,7 @@
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>447</v>
@@ -11907,7 +11926,7 @@
       </c>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>448</v>
       </c>
@@ -11926,7 +11945,7 @@
       </c>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>449</v>
       </c>
@@ -11945,7 +11964,7 @@
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>450</v>
@@ -11964,7 +11983,7 @@
       </c>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>451</v>
@@ -11983,7 +12002,7 @@
       </c>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>452</v>
@@ -12023,7 +12042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>454</v>
       </c>
@@ -12042,7 +12061,7 @@
       </c>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>455</v>
       </c>
@@ -12061,7 +12080,7 @@
       </c>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>456</v>
@@ -12080,7 +12099,7 @@
       </c>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>457</v>
       </c>
@@ -12099,7 +12118,7 @@
       </c>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>458</v>
@@ -12139,7 +12158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>459</v>
       </c>
@@ -12158,7 +12177,7 @@
       </c>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>460</v>
       </c>
@@ -12177,7 +12196,7 @@
       </c>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>461</v>
@@ -12196,7 +12215,7 @@
       </c>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>462</v>
@@ -12215,7 +12234,7 @@
       </c>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>23</v>
@@ -12234,7 +12253,7 @@
       </c>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>463</v>
@@ -12253,7 +12272,7 @@
       </c>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>464</v>
@@ -12291,7 +12310,7 @@
       </c>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>465</v>
       </c>
@@ -12310,7 +12329,7 @@
       </c>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>466</v>
@@ -12329,7 +12348,7 @@
       </c>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>467</v>
       </c>
@@ -12348,7 +12367,7 @@
       </c>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>468</v>
       </c>
@@ -12367,7 +12386,7 @@
       </c>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>469</v>
@@ -12405,7 +12424,7 @@
       </c>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>470</v>
       </c>
@@ -12424,7 +12443,7 @@
       </c>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>471</v>
       </c>
@@ -12443,7 +12462,7 @@
       </c>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>472</v>
       </c>
@@ -12462,7 +12481,7 @@
       </c>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>473</v>
       </c>
@@ -12481,7 +12500,7 @@
       </c>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>474</v>
@@ -12500,7 +12519,7 @@
       </c>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>475</v>
@@ -12519,7 +12538,7 @@
       </c>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>476</v>
@@ -12538,7 +12557,7 @@
       </c>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1" t="s">
         <v>477</v>
@@ -12557,7 +12576,7 @@
       </c>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>478</v>
@@ -12576,7 +12595,7 @@
       </c>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>479</v>
       </c>
@@ -12595,7 +12614,7 @@
       </c>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>480</v>
       </c>
@@ -12614,7 +12633,7 @@
       </c>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>23</v>
@@ -12633,7 +12652,7 @@
       </c>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>23</v>
@@ -12652,7 +12671,7 @@
       </c>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>23</v>
@@ -12671,7 +12690,7 @@
       </c>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>481</v>
@@ -12709,7 +12728,7 @@
       </c>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>482</v>
       </c>
@@ -12728,7 +12747,7 @@
       </c>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>483</v>
@@ -12747,7 +12766,7 @@
       </c>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>484</v>
@@ -12766,7 +12785,7 @@
       </c>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>485</v>
@@ -12785,7 +12804,7 @@
       </c>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>486</v>
       </c>
@@ -12823,7 +12842,7 @@
       </c>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>487</v>
       </c>
@@ -12842,7 +12861,7 @@
       </c>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1" t="s">
         <v>488</v>
@@ -12861,7 +12880,7 @@
       </c>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>489</v>
       </c>
@@ -12880,7 +12899,7 @@
       </c>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>490</v>
       </c>
@@ -12899,7 +12918,7 @@
       </c>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>491</v>
@@ -12937,7 +12956,7 @@
       </c>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>492</v>
       </c>
@@ -12956,7 +12975,7 @@
       </c>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>250</v>
       </c>
@@ -12994,7 +13013,7 @@
       </c>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>353</v>
@@ -13013,7 +13032,7 @@
       </c>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>493</v>
@@ -13032,7 +13051,7 @@
       </c>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>494</v>
@@ -13051,7 +13070,7 @@
       </c>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>495</v>
@@ -13089,7 +13108,7 @@
       </c>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>496</v>
       </c>
@@ -13108,7 +13127,7 @@
       </c>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>497</v>
@@ -13127,7 +13146,7 @@
       </c>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>498</v>
       </c>
@@ -13146,7 +13165,7 @@
       </c>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>499</v>
       </c>
@@ -13165,7 +13184,7 @@
       </c>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>500</v>
       </c>
@@ -13184,7 +13203,7 @@
       </c>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>501</v>
@@ -13203,7 +13222,7 @@
       </c>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>502</v>
       </c>
@@ -13222,7 +13241,7 @@
       </c>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>503</v>
@@ -13241,7 +13260,7 @@
       </c>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>504</v>
@@ -13260,7 +13279,7 @@
       </c>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>505</v>
@@ -13279,7 +13298,7 @@
       </c>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>506</v>
       </c>
@@ -13298,7 +13317,7 @@
       </c>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>507</v>
@@ -13336,7 +13355,7 @@
       </c>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>509</v>
@@ -13355,7 +13374,7 @@
       </c>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>510</v>
       </c>
@@ -13374,7 +13393,7 @@
       </c>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>511</v>
@@ -13393,7 +13412,7 @@
       </c>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>512</v>
@@ -13412,7 +13431,7 @@
       </c>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>513</v>
@@ -13431,7 +13450,7 @@
       </c>
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>514</v>
@@ -13450,7 +13469,7 @@
       </c>
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>515</v>
       </c>
@@ -13469,7 +13488,7 @@
       </c>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>516</v>
       </c>
@@ -13488,7 +13507,7 @@
       </c>
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>231</v>
@@ -13507,7 +13526,7 @@
       </c>
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>517</v>
@@ -13526,7 +13545,7 @@
       </c>
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>518</v>
       </c>
@@ -13545,7 +13564,7 @@
       </c>
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>519</v>
       </c>
@@ -13583,7 +13602,7 @@
       </c>
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>521</v>
       </c>
@@ -13602,7 +13621,7 @@
       </c>
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>522</v>
@@ -13621,7 +13640,7 @@
       </c>
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>523</v>
@@ -13678,7 +13697,7 @@
       </c>
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>525</v>
       </c>
@@ -13697,7 +13716,7 @@
       </c>
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>526</v>
@@ -13716,7 +13735,7 @@
       </c>
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>527</v>
@@ -13735,7 +13754,7 @@
       </c>
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>528</v>
@@ -13754,7 +13773,7 @@
       </c>
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>529</v>
       </c>
@@ -13773,7 +13792,7 @@
       </c>
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>530</v>
       </c>
@@ -13792,7 +13811,7 @@
       </c>
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>531</v>
@@ -13811,7 +13830,7 @@
       </c>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>532</v>
@@ -13830,7 +13849,7 @@
       </c>
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>533</v>
       </c>
@@ -13849,7 +13868,7 @@
       </c>
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>534</v>
@@ -13887,7 +13906,7 @@
       </c>
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>535</v>
       </c>
@@ -13906,7 +13925,7 @@
       </c>
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>353</v>
@@ -13925,7 +13944,7 @@
       </c>
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>536</v>
@@ -13944,7 +13963,7 @@
       </c>
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>537</v>
       </c>
@@ -13963,7 +13982,7 @@
       </c>
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>538</v>
       </c>
@@ -13982,7 +14001,7 @@
       </c>
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>539</v>
@@ -14001,7 +14020,7 @@
       </c>
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>540</v>
@@ -14058,7 +14077,7 @@
       </c>
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>541</v>
       </c>
@@ -14077,7 +14096,7 @@
       </c>
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1" t="s">
         <v>542</v>
@@ -14096,7 +14115,7 @@
       </c>
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
         <v>543</v>
@@ -14136,7 +14155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>546</v>
       </c>
@@ -14155,7 +14174,7 @@
       </c>
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>547</v>
       </c>
@@ -14174,7 +14193,7 @@
       </c>
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>548</v>
@@ -14193,7 +14212,7 @@
       </c>
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>429</v>
@@ -14233,7 +14252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>550</v>
       </c>
@@ -14309,7 +14328,7 @@
       </c>
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1" t="s">
         <v>552</v>
@@ -14328,7 +14347,7 @@
       </c>
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
         <v>553</v>
@@ -14347,7 +14366,7 @@
       </c>
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>554</v>
       </c>
@@ -14366,7 +14385,7 @@
       </c>
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>555</v>
       </c>
@@ -14385,7 +14404,7 @@
       </c>
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1" t="s">
         <v>556</v>
@@ -14404,7 +14423,7 @@
       </c>
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>557</v>
       </c>
@@ -14423,7 +14442,7 @@
       </c>
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
         <v>229</v>
@@ -14442,7 +14461,7 @@
       </c>
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>558</v>
       </c>
@@ -14461,7 +14480,7 @@
       </c>
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>559</v>
@@ -14480,7 +14499,7 @@
       </c>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
         <v>560</v>
@@ -14499,7 +14518,7 @@
       </c>
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>561</v>
       </c>
@@ -14518,7 +14537,7 @@
       </c>
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>562</v>
       </c>
@@ -14537,7 +14556,7 @@
       </c>
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>563</v>
       </c>
@@ -14556,7 +14575,7 @@
       </c>
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
         <v>564</v>
@@ -14575,7 +14594,7 @@
       </c>
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="s">
         <v>565</v>
@@ -14594,7 +14613,7 @@
       </c>
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>566</v>
       </c>
@@ -14613,7 +14632,7 @@
       </c>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>567</v>
       </c>
@@ -14632,7 +14651,7 @@
       </c>
       <c r="G383" s="1"/>
     </row>
-    <row r="384" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="s">
         <v>568</v>
@@ -14651,7 +14670,7 @@
       </c>
       <c r="G384" s="1"/>
     </row>
-    <row r="385" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>569</v>
@@ -14670,7 +14689,7 @@
       </c>
       <c r="G385" s="1"/>
     </row>
-    <row r="386" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>570</v>
       </c>
@@ -14689,7 +14708,7 @@
       </c>
       <c r="G386" s="1"/>
     </row>
-    <row r="387" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>42</v>
@@ -14708,7 +14727,7 @@
       </c>
       <c r="G387" s="1"/>
     </row>
-    <row r="388" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>571</v>
@@ -14746,7 +14765,7 @@
       </c>
       <c r="G389" s="1"/>
     </row>
-    <row r="390" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>573</v>
       </c>
@@ -14765,7 +14784,7 @@
       </c>
       <c r="G390" s="1"/>
     </row>
-    <row r="391" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="s">
         <v>574</v>
@@ -14784,7 +14803,7 @@
       </c>
       <c r="G391" s="1"/>
     </row>
-    <row r="392" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="s">
         <v>575</v>
@@ -14803,7 +14822,7 @@
       </c>
       <c r="G392" s="1"/>
     </row>
-    <row r="393" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="s">
         <v>576</v>
@@ -14822,7 +14841,7 @@
       </c>
       <c r="G393" s="1"/>
     </row>
-    <row r="394" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1" t="s">
         <v>577</v>
@@ -14841,7 +14860,7 @@
       </c>
       <c r="G394" s="1"/>
     </row>
-    <row r="395" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>578</v>
       </c>
@@ -14860,7 +14879,7 @@
       </c>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>579</v>
       </c>
@@ -14879,7 +14898,7 @@
       </c>
       <c r="G396" s="1"/>
     </row>
-    <row r="397" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>580</v>
       </c>
@@ -14898,7 +14917,7 @@
       </c>
       <c r="G397" s="1"/>
     </row>
-    <row r="398" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>581</v>
@@ -14917,7 +14936,7 @@
       </c>
       <c r="G398" s="1"/>
     </row>
-    <row r="399" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>582</v>
@@ -14936,7 +14955,7 @@
       </c>
       <c r="G399" s="1"/>
     </row>
-    <row r="400" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1" t="s">
@@ -14972,7 +14991,7 @@
       </c>
       <c r="G401" s="1"/>
     </row>
-    <row r="402" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>584</v>
       </c>
@@ -14991,7 +15010,7 @@
       </c>
       <c r="G402" s="1"/>
     </row>
-    <row r="403" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>585</v>
       </c>
@@ -15010,7 +15029,7 @@
       </c>
       <c r="G403" s="1"/>
     </row>
-    <row r="404" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1" t="s">
         <v>586</v>
@@ -15029,7 +15048,7 @@
       </c>
       <c r="G404" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1" t="s">
         <v>587</v>
@@ -15048,7 +15067,7 @@
       </c>
       <c r="G405" s="1"/>
     </row>
-    <row r="406" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>588</v>
       </c>
@@ -15086,7 +15105,7 @@
       </c>
       <c r="G407" s="1"/>
     </row>
-    <row r="408" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>589</v>
       </c>
@@ -15105,7 +15124,7 @@
       </c>
       <c r="G408" s="1"/>
     </row>
-    <row r="409" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
         <v>590</v>
@@ -15124,7 +15143,7 @@
       </c>
       <c r="G409" s="1"/>
     </row>
-    <row r="410" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1" t="s">
         <v>591</v>
@@ -15143,7 +15162,7 @@
       </c>
       <c r="G410" s="1"/>
     </row>
-    <row r="411" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>592</v>
       </c>
@@ -15162,7 +15181,7 @@
       </c>
       <c r="G411" s="1"/>
     </row>
-    <row r="412" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1" t="s">
         <v>593</v>
@@ -15181,7 +15200,7 @@
       </c>
       <c r="G412" s="1"/>
     </row>
-    <row r="413" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1" t="s">
         <v>594</v>
@@ -15200,7 +15219,7 @@
       </c>
       <c r="G413" s="1"/>
     </row>
-    <row r="414" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>595</v>
       </c>
@@ -15219,7 +15238,7 @@
       </c>
       <c r="G414" s="1"/>
     </row>
-    <row r="415" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1" t="s">
         <v>596</v>
@@ -15238,7 +15257,7 @@
       </c>
       <c r="G415" s="1"/>
     </row>
-    <row r="416" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>597</v>
       </c>
@@ -15257,7 +15276,7 @@
       </c>
       <c r="G416" s="1"/>
     </row>
-    <row r="417" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>598</v>
@@ -15276,7 +15295,7 @@
       </c>
       <c r="G417" s="1"/>
     </row>
-    <row r="418" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>599</v>
       </c>
@@ -15314,7 +15333,7 @@
       </c>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1" t="s">
         <v>598</v>
@@ -15333,7 +15352,7 @@
       </c>
       <c r="G420" s="1"/>
     </row>
-    <row r="421" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1" t="s">
         <v>600</v>
@@ -15371,7 +15390,7 @@
       </c>
       <c r="G422" s="1"/>
     </row>
-    <row r="423" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>602</v>
@@ -15390,7 +15409,7 @@
       </c>
       <c r="G423" s="1"/>
     </row>
-    <row r="424" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
         <v>603</v>
@@ -15409,7 +15428,7 @@
       </c>
       <c r="G424" s="1"/>
     </row>
-    <row r="425" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
         <v>604</v>
@@ -15428,7 +15447,7 @@
       </c>
       <c r="G425" s="1"/>
     </row>
-    <row r="426" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>605</v>
@@ -15447,7 +15466,7 @@
       </c>
       <c r="G426" s="1"/>
     </row>
-    <row r="427" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>606</v>
       </c>
@@ -15466,7 +15485,7 @@
       </c>
       <c r="G427" s="1"/>
     </row>
-    <row r="428" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>607</v>
@@ -15504,7 +15523,7 @@
       </c>
       <c r="G429" s="1"/>
     </row>
-    <row r="430" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>608</v>
       </c>
@@ -15523,7 +15542,7 @@
       </c>
       <c r="G430" s="1"/>
     </row>
-    <row r="431" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>609</v>
@@ -15563,7 +15582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>611</v>
       </c>
@@ -15582,7 +15601,7 @@
       </c>
       <c r="G433" s="1"/>
     </row>
-    <row r="434" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1" t="s">
         <v>612</v>
@@ -15601,7 +15620,7 @@
       </c>
       <c r="G434" s="1"/>
     </row>
-    <row r="435" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>613</v>
       </c>
@@ -15620,7 +15639,7 @@
       </c>
       <c r="G435" s="1"/>
     </row>
-    <row r="436" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1" t="s">
         <v>229</v>
@@ -15639,7 +15658,7 @@
       </c>
       <c r="G436" s="1"/>
     </row>
-    <row r="437" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>614</v>
@@ -15658,7 +15677,7 @@
       </c>
       <c r="G437" s="1"/>
     </row>
-    <row r="438" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>615</v>
       </c>
@@ -15677,7 +15696,7 @@
       </c>
       <c r="G438" s="1"/>
     </row>
-    <row r="439" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>617</v>
       </c>
@@ -15696,7 +15715,7 @@
       </c>
       <c r="G439" s="1"/>
     </row>
-    <row r="440" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>618</v>
@@ -15715,7 +15734,7 @@
       </c>
       <c r="G440" s="1"/>
     </row>
-    <row r="441" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>619</v>
@@ -15772,7 +15791,7 @@
       </c>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>621</v>
       </c>
@@ -15791,7 +15810,7 @@
       </c>
       <c r="G444" s="1"/>
     </row>
-    <row r="445" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
         <v>622</v>
@@ -15810,7 +15829,7 @@
       </c>
       <c r="G445" s="1"/>
     </row>
-    <row r="446" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>623</v>
       </c>
@@ -15848,7 +15867,7 @@
       </c>
       <c r="G447" s="1"/>
     </row>
-    <row r="448" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>624</v>
       </c>
@@ -15867,7 +15886,7 @@
       </c>
       <c r="G448" s="1"/>
     </row>
-    <row r="449" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>625</v>
@@ -15886,7 +15905,7 @@
       </c>
       <c r="G449" s="1"/>
     </row>
-    <row r="450" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1" t="s">
         <v>626</v>
@@ -15905,7 +15924,7 @@
       </c>
       <c r="G450" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="s">
         <v>626</v>
@@ -15924,7 +15943,7 @@
       </c>
       <c r="G451" s="1"/>
     </row>
-    <row r="452" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="s">
         <v>626</v>
@@ -15956,7 +15975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="s">
         <v>627</v>
@@ -15996,7 +16015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>630</v>
       </c>
@@ -16015,7 +16034,7 @@
       </c>
       <c r="G456" s="1"/>
     </row>
-    <row r="457" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>631</v>
       </c>
@@ -16091,7 +16110,7 @@
       </c>
       <c r="G460" s="1"/>
     </row>
-    <row r="461" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>632</v>
       </c>
@@ -16110,7 +16129,7 @@
       </c>
       <c r="G461" s="1"/>
     </row>
-    <row r="462" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>633</v>
       </c>
@@ -16129,7 +16148,7 @@
       </c>
       <c r="G462" s="1"/>
     </row>
-    <row r="463" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>634</v>
@@ -16148,7 +16167,7 @@
       </c>
       <c r="G463" s="1"/>
     </row>
-    <row r="464" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1" t="s">
         <v>635</v>
@@ -16167,7 +16186,7 @@
       </c>
       <c r="G464" s="1"/>
     </row>
-    <row r="465" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1" t="s">
         <v>19</v>
@@ -16186,7 +16205,7 @@
       </c>
       <c r="G465" s="1"/>
     </row>
-    <row r="466" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>636</v>
       </c>
@@ -16224,7 +16243,7 @@
       </c>
       <c r="G467" s="1"/>
     </row>
-    <row r="468" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>637</v>
       </c>
@@ -16243,7 +16262,7 @@
       </c>
       <c r="G468" s="1"/>
     </row>
-    <row r="469" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>638</v>
       </c>
@@ -16262,7 +16281,7 @@
       </c>
       <c r="G469" s="1"/>
     </row>
-    <row r="470" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>639</v>
       </c>
@@ -16300,7 +16319,7 @@
       </c>
       <c r="G471" s="1"/>
     </row>
-    <row r="472" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>640</v>
       </c>
@@ -16338,7 +16357,7 @@
       </c>
       <c r="G473" s="1"/>
     </row>
-    <row r="474" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>568</v>
@@ -16357,7 +16376,7 @@
       </c>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1" t="s">
         <v>641</v>
@@ -16376,7 +16395,7 @@
       </c>
       <c r="G475" s="1"/>
     </row>
-    <row r="476" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1" t="s">
         <v>642</v>
@@ -16395,7 +16414,7 @@
       </c>
       <c r="G476" s="1"/>
     </row>
-    <row r="477" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>643</v>
       </c>
@@ -16414,7 +16433,7 @@
       </c>
       <c r="G477" s="1"/>
     </row>
-    <row r="478" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1" t="s">
         <v>23</v>
@@ -16433,7 +16452,7 @@
       </c>
       <c r="G478" s="1"/>
     </row>
-    <row r="479" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1" t="s">
         <v>644</v>
@@ -16452,7 +16471,7 @@
       </c>
       <c r="G479" s="1"/>
     </row>
-    <row r="480" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>645</v>
       </c>
@@ -16547,7 +16566,7 @@
       </c>
       <c r="G484" s="1"/>
     </row>
-    <row r="485" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>646</v>
       </c>
@@ -16566,7 +16585,7 @@
       </c>
       <c r="G485" s="1"/>
     </row>
-    <row r="486" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>647</v>
       </c>
@@ -16585,7 +16604,7 @@
       </c>
       <c r="G486" s="1"/>
     </row>
-    <row r="487" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>648</v>
@@ -16604,7 +16623,7 @@
       </c>
       <c r="G487" s="1"/>
     </row>
-    <row r="488" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1" t="s">
         <v>649</v>
@@ -16623,7 +16642,7 @@
       </c>
       <c r="G488" s="1"/>
     </row>
-    <row r="489" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>650</v>
       </c>
@@ -16642,7 +16661,7 @@
       </c>
       <c r="G489" s="1"/>
     </row>
-    <row r="490" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>651</v>
       </c>
@@ -16680,7 +16699,7 @@
       </c>
       <c r="G491" s="1"/>
     </row>
-    <row r="492" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1" t="s">
         <v>652</v>
@@ -16699,7 +16718,7 @@
       </c>
       <c r="G492" s="1"/>
     </row>
-    <row r="493" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1" t="s">
         <v>653</v>
@@ -16718,7 +16737,7 @@
       </c>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1" t="s">
         <v>654</v>
@@ -16737,7 +16756,7 @@
       </c>
       <c r="G494" s="1"/>
     </row>
-    <row r="495" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>655</v>
       </c>
@@ -16756,7 +16775,7 @@
       </c>
       <c r="G495" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>656</v>
       </c>
@@ -16775,7 +16794,7 @@
       </c>
       <c r="G496" s="1"/>
     </row>
-    <row r="497" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1" t="s">
         <v>657</v>
@@ -16794,7 +16813,7 @@
       </c>
       <c r="G497" s="1"/>
     </row>
-    <row r="498" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1" t="s">
         <v>658</v>
@@ -16813,7 +16832,7 @@
       </c>
       <c r="G498" s="1"/>
     </row>
-    <row r="499" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1" t="s">
         <v>659</v>
@@ -16832,7 +16851,7 @@
       </c>
       <c r="G499" s="1"/>
     </row>
-    <row r="500" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1" t="s">
         <v>660</v>
@@ -16851,7 +16870,7 @@
       </c>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>661</v>
       </c>
@@ -16870,7 +16889,7 @@
       </c>
       <c r="G501" s="1"/>
     </row>
-    <row r="502" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1" t="s">
         <v>662</v>
@@ -16889,7 +16908,7 @@
       </c>
       <c r="G502" s="1"/>
     </row>
-    <row r="503" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>663</v>
@@ -16908,7 +16927,7 @@
       </c>
       <c r="G503" s="1"/>
     </row>
-    <row r="504" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1" t="s">
         <v>664</v>
@@ -16927,7 +16946,7 @@
       </c>
       <c r="G504" s="1"/>
     </row>
-    <row r="505" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>665</v>
       </c>
@@ -16946,7 +16965,7 @@
       </c>
       <c r="G505" s="1"/>
     </row>
-    <row r="506" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="s">
         <v>153</v>
@@ -16965,7 +16984,7 @@
       </c>
       <c r="G506" s="1"/>
     </row>
-    <row r="507" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="s">
         <v>666</v>
@@ -17003,7 +17022,7 @@
       </c>
       <c r="G508" s="1"/>
     </row>
-    <row r="509" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>667</v>
       </c>
@@ -17022,7 +17041,7 @@
       </c>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>668</v>
@@ -17041,7 +17060,7 @@
       </c>
       <c r="G510" s="1"/>
     </row>
-    <row r="511" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>670</v>
       </c>
@@ -17060,7 +17079,7 @@
       </c>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>671</v>
       </c>
@@ -17079,7 +17098,7 @@
       </c>
       <c r="G512" s="1"/>
     </row>
-    <row r="513" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="s">
         <v>672</v>
@@ -17119,7 +17138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>674</v>
       </c>
@@ -17138,7 +17157,7 @@
       </c>
       <c r="G515" s="1"/>
     </row>
-    <row r="516" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="s">
         <v>675</v>
@@ -17157,7 +17176,7 @@
       </c>
       <c r="G516" s="1"/>
     </row>
-    <row r="517" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>676</v>
       </c>
@@ -17176,7 +17195,7 @@
       </c>
       <c r="G517" s="1"/>
     </row>
-    <row r="518" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>677</v>
       </c>
@@ -17195,7 +17214,7 @@
       </c>
       <c r="G518" s="1"/>
     </row>
-    <row r="519" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>678</v>
       </c>
@@ -17271,7 +17290,7 @@
       </c>
       <c r="G522" s="1"/>
     </row>
-    <row r="523" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>680</v>
@@ -17290,7 +17309,7 @@
       </c>
       <c r="G523" s="1"/>
     </row>
-    <row r="524" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>681</v>
       </c>
@@ -17347,7 +17366,7 @@
       </c>
       <c r="G526" s="1"/>
     </row>
-    <row r="527" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>682</v>
       </c>
@@ -17385,7 +17404,7 @@
       </c>
       <c r="G528" s="1"/>
     </row>
-    <row r="529" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>683</v>
@@ -17404,7 +17423,7 @@
       </c>
       <c r="G529" s="1"/>
     </row>
-    <row r="530" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1" t="s">
         <v>684</v>
@@ -17423,7 +17442,7 @@
       </c>
       <c r="G530" s="1"/>
     </row>
-    <row r="531" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>685</v>
       </c>
@@ -17442,7 +17461,7 @@
       </c>
       <c r="G531" s="1"/>
     </row>
-    <row r="532" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>686</v>
       </c>
@@ -17461,7 +17480,7 @@
       </c>
       <c r="G532" s="1"/>
     </row>
-    <row r="533" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1" t="s">
         <v>687</v>
@@ -17480,7 +17499,7 @@
       </c>
       <c r="G533" s="1"/>
     </row>
-    <row r="534" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>688</v>
       </c>
@@ -17499,7 +17518,7 @@
       </c>
       <c r="G534" s="1"/>
     </row>
-    <row r="535" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>689</v>
       </c>
@@ -17518,7 +17537,7 @@
       </c>
       <c r="G535" s="1"/>
     </row>
-    <row r="536" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>690</v>
       </c>
@@ -17556,7 +17575,7 @@
       </c>
       <c r="G537" s="1"/>
     </row>
-    <row r="538" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1" t="s">
         <v>692</v>
@@ -17575,7 +17594,7 @@
       </c>
       <c r="G538" s="1"/>
     </row>
-    <row r="539" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1" t="s">
         <v>693</v>
@@ -17594,7 +17613,7 @@
       </c>
       <c r="G539" s="1"/>
     </row>
-    <row r="540" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>694</v>
@@ -17613,7 +17632,7 @@
       </c>
       <c r="G540" s="1"/>
     </row>
-    <row r="541" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>695</v>
       </c>
@@ -17632,7 +17651,7 @@
       </c>
       <c r="G541" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>696</v>
       </c>
@@ -17651,7 +17670,7 @@
       </c>
       <c r="G542" s="1"/>
     </row>
-    <row r="543" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>697</v>
       </c>
@@ -17670,7 +17689,7 @@
       </c>
       <c r="G543" s="1"/>
     </row>
-    <row r="544" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>698</v>
       </c>
@@ -17689,7 +17708,7 @@
       </c>
       <c r="G544" s="1"/>
     </row>
-    <row r="545" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>699</v>
@@ -17708,7 +17727,7 @@
       </c>
       <c r="G545" s="1"/>
     </row>
-    <row r="546" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>700</v>
       </c>
@@ -17727,7 +17746,7 @@
       </c>
       <c r="G546" s="1"/>
     </row>
-    <row r="547" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>701</v>
       </c>
@@ -17746,7 +17765,7 @@
       </c>
       <c r="G547" s="1"/>
     </row>
-    <row r="548" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>702</v>
       </c>
@@ -17803,7 +17822,7 @@
       </c>
       <c r="G550" s="1"/>
     </row>
-    <row r="551" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1" t="s">
         <v>704</v>
@@ -17822,7 +17841,7 @@
       </c>
       <c r="G551" s="1"/>
     </row>
-    <row r="552" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1" t="s">
         <v>705</v>
@@ -17841,7 +17860,7 @@
       </c>
       <c r="G552" s="1"/>
     </row>
-    <row r="553" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1" t="s">
         <v>706</v>
@@ -17860,7 +17879,7 @@
       </c>
       <c r="G553" s="1"/>
     </row>
-    <row r="554" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1" t="s">
         <v>707</v>
@@ -17879,7 +17898,7 @@
       </c>
       <c r="G554" s="1"/>
     </row>
-    <row r="555" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1" t="s">
         <v>708</v>
@@ -17898,7 +17917,7 @@
       </c>
       <c r="G555" s="1"/>
     </row>
-    <row r="556" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1" t="s">
         <v>709</v>
@@ -17917,7 +17936,7 @@
       </c>
       <c r="G556" s="1"/>
     </row>
-    <row r="557" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>710</v>
@@ -17936,7 +17955,7 @@
       </c>
       <c r="G557" s="1"/>
     </row>
-    <row r="558" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1" t="s">
         <v>711</v>
@@ -17955,7 +17974,7 @@
       </c>
       <c r="G558" s="1"/>
     </row>
-    <row r="559" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1" t="s">
         <v>712</v>
@@ -17974,7 +17993,7 @@
       </c>
       <c r="G559" s="1"/>
     </row>
-    <row r="560" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>713</v>
       </c>
@@ -17993,7 +18012,7 @@
       </c>
       <c r="G560" s="1"/>
     </row>
-    <row r="561" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>714</v>
@@ -18012,7 +18031,7 @@
       </c>
       <c r="G561" s="1"/>
     </row>
-    <row r="562" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1" t="s">
         <v>715</v>
@@ -18031,7 +18050,7 @@
       </c>
       <c r="G562" s="1"/>
     </row>
-    <row r="563" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1" t="s">
         <v>716</v>
@@ -18069,7 +18088,7 @@
       </c>
       <c r="G564" s="1"/>
     </row>
-    <row r="565" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1" t="s">
         <v>718</v>
@@ -18088,7 +18107,7 @@
       </c>
       <c r="G565" s="1"/>
     </row>
-    <row r="566" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>719</v>
@@ -18107,7 +18126,7 @@
       </c>
       <c r="G566" s="1"/>
     </row>
-    <row r="567" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>720</v>
       </c>
@@ -18126,7 +18145,7 @@
       </c>
       <c r="G567" s="1"/>
     </row>
-    <row r="568" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>721</v>
       </c>
@@ -18145,7 +18164,7 @@
       </c>
       <c r="G568" s="1"/>
     </row>
-    <row r="569" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>722</v>
       </c>
@@ -18164,7 +18183,7 @@
       </c>
       <c r="G569" s="1"/>
     </row>
-    <row r="570" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>723</v>
       </c>
@@ -18202,7 +18221,7 @@
       </c>
       <c r="G571" s="1"/>
     </row>
-    <row r="572" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>724</v>
@@ -18221,7 +18240,7 @@
       </c>
       <c r="G572" s="1"/>
     </row>
-    <row r="573" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>725</v>
@@ -18240,7 +18259,7 @@
       </c>
       <c r="G573" s="1"/>
     </row>
-    <row r="574" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>726</v>
@@ -18259,7 +18278,7 @@
       </c>
       <c r="G574" s="1"/>
     </row>
-    <row r="575" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>727</v>
       </c>
@@ -18278,7 +18297,7 @@
       </c>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>728</v>
       </c>
@@ -18316,7 +18335,7 @@
       </c>
       <c r="G577" s="1"/>
     </row>
-    <row r="578" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1" t="s">
         <v>730</v>
@@ -18335,7 +18354,7 @@
       </c>
       <c r="G578" s="1"/>
     </row>
-    <row r="579" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="s">
         <v>731</v>
@@ -18354,7 +18373,7 @@
       </c>
       <c r="G579" s="1"/>
     </row>
-    <row r="580" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="s">
         <v>732</v>
@@ -18373,7 +18392,7 @@
       </c>
       <c r="G580" s="1"/>
     </row>
-    <row r="581" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>733</v>
       </c>
@@ -18392,7 +18411,7 @@
       </c>
       <c r="G581" s="1"/>
     </row>
-    <row r="582" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>734</v>
@@ -18411,7 +18430,7 @@
       </c>
       <c r="G582" s="1"/>
     </row>
-    <row r="583" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="s">
         <v>735</v>
@@ -18430,7 +18449,7 @@
       </c>
       <c r="G583" s="1"/>
     </row>
-    <row r="584" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="s">
         <v>736</v>
@@ -18449,7 +18468,7 @@
       </c>
       <c r="G584" s="1"/>
     </row>
-    <row r="585" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>737</v>
       </c>
@@ -18468,7 +18487,7 @@
       </c>
       <c r="G585" s="1"/>
     </row>
-    <row r="586" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1" t="s">
         <v>738</v>
@@ -18487,7 +18506,7 @@
       </c>
       <c r="G586" s="1"/>
     </row>
-    <row r="587" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>739</v>
@@ -18506,7 +18525,7 @@
       </c>
       <c r="G587" s="1"/>
     </row>
-    <row r="588" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1" t="s">
@@ -18523,7 +18542,7 @@
       </c>
       <c r="G588" s="1"/>
     </row>
-    <row r="589" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>740</v>
       </c>
@@ -18563,7 +18582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>742</v>
       </c>
@@ -18582,7 +18601,7 @@
       </c>
       <c r="G591" s="1"/>
     </row>
-    <row r="592" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>743</v>
       </c>
@@ -18601,7 +18620,7 @@
       </c>
       <c r="G592" s="1"/>
     </row>
-    <row r="593" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>744</v>
       </c>
@@ -18620,7 +18639,7 @@
       </c>
       <c r="G593" s="1"/>
     </row>
-    <row r="594" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>745</v>
       </c>
@@ -18639,7 +18658,7 @@
       </c>
       <c r="G594" s="1"/>
     </row>
-    <row r="595" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1" t="s">
         <v>746</v>
@@ -18677,7 +18696,7 @@
       </c>
       <c r="G596" s="1"/>
     </row>
-    <row r="597" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>747</v>
       </c>
@@ -18696,7 +18715,7 @@
       </c>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>748</v>
       </c>
@@ -18715,7 +18734,7 @@
       </c>
       <c r="G598" s="1"/>
     </row>
-    <row r="599" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>749</v>
@@ -18755,7 +18774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>751</v>
       </c>
@@ -18774,7 +18793,7 @@
       </c>
       <c r="G601" s="1"/>
     </row>
-    <row r="602" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1" t="s">
         <v>752</v>
@@ -18814,7 +18833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>755</v>
       </c>
@@ -18835,7 +18854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>285</v>
@@ -18854,7 +18873,7 @@
       </c>
       <c r="G605" s="1"/>
     </row>
-    <row r="606" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>756</v>
@@ -18873,7 +18892,7 @@
       </c>
       <c r="G606" s="1"/>
     </row>
-    <row r="607" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>757</v>
       </c>
@@ -18892,7 +18911,7 @@
       </c>
       <c r="G607" s="1"/>
     </row>
-    <row r="608" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>23</v>
@@ -18911,7 +18930,7 @@
       </c>
       <c r="G608" s="1"/>
     </row>
-    <row r="609" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>758</v>
@@ -18930,7 +18949,7 @@
       </c>
       <c r="G609" s="1"/>
     </row>
-    <row r="610" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1" t="s">
         <v>23</v>
@@ -18970,7 +18989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>760</v>
       </c>
@@ -18989,7 +19008,7 @@
       </c>
       <c r="G612" s="1"/>
     </row>
-    <row r="613" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>23</v>
@@ -19008,7 +19027,7 @@
       </c>
       <c r="G613" s="1"/>
     </row>
-    <row r="614" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>761</v>
@@ -19048,7 +19067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>546</v>
       </c>
@@ -19067,7 +19086,7 @@
       </c>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>763</v>
@@ -19086,7 +19105,7 @@
       </c>
       <c r="G617" s="1"/>
     </row>
-    <row r="618" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>764</v>
       </c>
@@ -19105,7 +19124,7 @@
       </c>
       <c r="G618" s="1"/>
     </row>
-    <row r="619" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
         <v>765</v>
@@ -19124,7 +19143,7 @@
       </c>
       <c r="G619" s="1"/>
     </row>
-    <row r="620" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>766</v>
       </c>
@@ -19143,7 +19162,7 @@
       </c>
       <c r="G620" s="1"/>
     </row>
-    <row r="621" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>767</v>
       </c>
@@ -19162,7 +19181,7 @@
       </c>
       <c r="G621" s="1"/>
     </row>
-    <row r="622" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>768</v>
@@ -19202,7 +19221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>770</v>
       </c>
@@ -19240,7 +19259,7 @@
       </c>
       <c r="G625" s="1"/>
     </row>
-    <row r="626" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>771</v>
       </c>
@@ -19259,7 +19278,7 @@
       </c>
       <c r="G626" s="1"/>
     </row>
-    <row r="627" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>772</v>
@@ -19297,7 +19316,7 @@
       </c>
       <c r="G628" s="1"/>
     </row>
-    <row r="629" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>773</v>
       </c>
@@ -19316,7 +19335,7 @@
       </c>
       <c r="G629" s="1"/>
     </row>
-    <row r="630" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>774</v>
@@ -19354,7 +19373,7 @@
       </c>
       <c r="G631" s="1"/>
     </row>
-    <row r="632" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>776</v>
@@ -19373,7 +19392,7 @@
       </c>
       <c r="G632" s="1"/>
     </row>
-    <row r="633" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>777</v>
       </c>
@@ -19392,7 +19411,7 @@
       </c>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>778</v>
@@ -19411,7 +19430,7 @@
       </c>
       <c r="G634" s="1"/>
     </row>
-    <row r="635" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>779</v>
       </c>
@@ -19430,7 +19449,7 @@
       </c>
       <c r="G635" s="1"/>
     </row>
-    <row r="636" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>780</v>
@@ -19449,7 +19468,7 @@
       </c>
       <c r="G636" s="1"/>
     </row>
-    <row r="637" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>781</v>
       </c>
@@ -19468,7 +19487,7 @@
       </c>
       <c r="G637" s="1"/>
     </row>
-    <row r="638" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>782</v>
       </c>
@@ -19487,7 +19506,7 @@
       </c>
       <c r="G638" s="1"/>
     </row>
-    <row r="639" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="s">
         <v>783</v>
@@ -19506,7 +19525,7 @@
       </c>
       <c r="G639" s="1"/>
     </row>
-    <row r="640" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>784</v>
       </c>
@@ -19525,7 +19544,7 @@
       </c>
       <c r="G640" s="1"/>
     </row>
-    <row r="641" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="s">
         <v>785</v>
@@ -19563,7 +19582,7 @@
       </c>
       <c r="G642" s="1"/>
     </row>
-    <row r="643" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>786</v>
@@ -19601,7 +19620,7 @@
       </c>
       <c r="G644" s="1"/>
     </row>
-    <row r="645" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>787</v>
       </c>
@@ -19620,7 +19639,7 @@
       </c>
       <c r="G645" s="1"/>
     </row>
-    <row r="646" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>788</v>
@@ -19658,7 +19677,7 @@
       </c>
       <c r="G647" s="1"/>
     </row>
-    <row r="648" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>789</v>
       </c>
@@ -19679,7 +19698,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>789</v>
       </c>
@@ -19698,7 +19717,7 @@
       </c>
       <c r="G649" s="1"/>
     </row>
-    <row r="650" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>23</v>
@@ -19717,7 +19736,7 @@
       </c>
       <c r="G650" s="1"/>
     </row>
-    <row r="651" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>792</v>
@@ -19736,7 +19755,7 @@
       </c>
       <c r="G651" s="1"/>
     </row>
-    <row r="652" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>793</v>
       </c>
@@ -19755,7 +19774,7 @@
       </c>
       <c r="G652" s="1"/>
     </row>
-    <row r="653" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>794</v>
       </c>
@@ -19774,7 +19793,7 @@
       </c>
       <c r="G653" s="1"/>
     </row>
-    <row r="654" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>211</v>
@@ -19806,7 +19825,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>795</v>
@@ -19825,7 +19844,7 @@
       </c>
       <c r="G656" s="1"/>
     </row>
-    <row r="657" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>797</v>
@@ -19857,7 +19876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>795</v>
@@ -19876,7 +19895,7 @@
       </c>
       <c r="G659" s="1"/>
     </row>
-    <row r="660" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>799</v>
@@ -19895,7 +19914,7 @@
       </c>
       <c r="G660" s="1"/>
     </row>
-    <row r="661" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>800</v>
       </c>
@@ -19914,7 +19933,7 @@
       </c>
       <c r="G661" s="1"/>
     </row>
-    <row r="662" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>801</v>
@@ -19933,7 +19952,7 @@
       </c>
       <c r="G662" s="1"/>
     </row>
-    <row r="663" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>700</v>
       </c>
@@ -19954,7 +19973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>803</v>
       </c>
@@ -19973,7 +19992,7 @@
       </c>
       <c r="G664" s="1"/>
     </row>
-    <row r="665" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>804</v>
@@ -19992,7 +20011,7 @@
       </c>
       <c r="G665" s="1"/>
     </row>
-    <row r="666" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>805</v>
       </c>
@@ -20011,7 +20030,7 @@
       </c>
       <c r="G666" s="1"/>
     </row>
-    <row r="667" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>806</v>
@@ -20049,7 +20068,7 @@
       </c>
       <c r="G668" s="1"/>
     </row>
-    <row r="669" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>808</v>
       </c>
@@ -20068,7 +20087,7 @@
       </c>
       <c r="G669" s="1"/>
     </row>
-    <row r="670" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>211</v>
@@ -20087,7 +20106,7 @@
       </c>
       <c r="G670" s="1"/>
     </row>
-    <row r="671" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>809</v>
       </c>
@@ -20106,7 +20125,7 @@
       </c>
       <c r="G671" s="1"/>
     </row>
-    <row r="672" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>811</v>
@@ -20125,7 +20144,7 @@
       </c>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1" t="s">
@@ -20142,7 +20161,7 @@
       </c>
       <c r="G673" s="1"/>
     </row>
-    <row r="674" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>812</v>
       </c>
@@ -20163,7 +20182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>814</v>
       </c>
@@ -20182,7 +20201,7 @@
       </c>
       <c r="G675" s="1"/>
     </row>
-    <row r="676" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>815</v>
       </c>
@@ -20201,7 +20220,7 @@
       </c>
       <c r="G676" s="1"/>
     </row>
-    <row r="677" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>816</v>
@@ -20220,7 +20239,7 @@
       </c>
       <c r="G677" s="1"/>
     </row>
-    <row r="678" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>817</v>
@@ -20258,7 +20277,7 @@
       </c>
       <c r="G679" s="1"/>
     </row>
-    <row r="680" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>818</v>
       </c>
@@ -20279,7 +20298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>820</v>
@@ -20317,7 +20336,7 @@
       </c>
       <c r="G682" s="1"/>
     </row>
-    <row r="683" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>821</v>
       </c>
@@ -20336,7 +20355,7 @@
       </c>
       <c r="G683" s="1"/>
     </row>
-    <row r="684" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>822</v>
       </c>
@@ -20355,7 +20374,7 @@
       </c>
       <c r="G684" s="1"/>
     </row>
-    <row r="685" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>211</v>
@@ -20374,7 +20393,7 @@
       </c>
       <c r="G685" s="1"/>
     </row>
-    <row r="686" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>823</v>
       </c>
@@ -20393,7 +20412,7 @@
       </c>
       <c r="G686" s="1"/>
     </row>
-    <row r="687" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>824</v>
       </c>
@@ -20412,7 +20431,7 @@
       </c>
       <c r="G687" s="1"/>
     </row>
-    <row r="688" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>825</v>
@@ -20431,7 +20450,7 @@
       </c>
       <c r="G688" s="1"/>
     </row>
-    <row r="689" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>826</v>
@@ -20450,7 +20469,7 @@
       </c>
       <c r="G689" s="1"/>
     </row>
-    <row r="690" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>827</v>
       </c>
@@ -20469,7 +20488,7 @@
       </c>
       <c r="G690" s="1"/>
     </row>
-    <row r="691" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>828</v>
@@ -20488,7 +20507,7 @@
       </c>
       <c r="G691" s="1"/>
     </row>
-    <row r="692" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>795</v>
@@ -20507,7 +20526,7 @@
       </c>
       <c r="G692" s="1"/>
     </row>
-    <row r="693" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>829</v>
@@ -20526,7 +20545,7 @@
       </c>
       <c r="G693" s="1"/>
     </row>
-    <row r="694" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>23</v>
       </c>
@@ -20547,7 +20566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>831</v>
       </c>
@@ -20566,7 +20585,7 @@
       </c>
       <c r="G695" s="1"/>
     </row>
-    <row r="696" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>832</v>
@@ -20585,7 +20604,7 @@
       </c>
       <c r="G696" s="1"/>
     </row>
-    <row r="697" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>833</v>
       </c>
@@ -20604,7 +20623,7 @@
       </c>
       <c r="G697" s="1"/>
     </row>
-    <row r="698" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>834</v>
@@ -20623,7 +20642,7 @@
       </c>
       <c r="G698" s="1"/>
     </row>
-    <row r="699" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>835</v>
       </c>
@@ -20642,7 +20661,7 @@
       </c>
       <c r="G699" s="1"/>
     </row>
-    <row r="700" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>836</v>
@@ -20667,6 +20686,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C02EDA-1C6E-4F46-A0AA-0C36C898044D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngduc\PycharmProjects\conversations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE147083-3F70-4C53-BC2C-25CEE37DF06D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B4852-1AAB-40A4-BC43-81F6E9724345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
@@ -6931,7 +6931,7 @@
         <v>2.5347222222222221E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>216</v>
       </c>
@@ -7339,10 +7339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G700"/>
+  <dimension ref="A1:G703"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A695" workbookViewId="0">
+      <selection activeCell="A703" sqref="A703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7379,7 +7379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>236</v>
       </c>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>23</v>
       </c>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>381</v>
       </c>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>389</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>23</v>
       </c>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>23</v>
       </c>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>23</v>
       </c>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>23</v>
       </c>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>23</v>
       </c>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>440</v>
       </c>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>988928512</v>
       </c>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>23</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>23</v>
       </c>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>23</v>
       </c>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>23</v>
       </c>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>23</v>
       </c>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>23</v>
       </c>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>23</v>
       </c>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>23</v>
       </c>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>258</v>
       </c>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>936875999</v>
       </c>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>258</v>
       </c>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>508</v>
       </c>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>520</v>
       </c>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>23</v>
       </c>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>524</v>
       </c>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>258</v>
       </c>
@@ -14039,7 +14039,7 @@
       </c>
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>258</v>
       </c>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>23</v>
       </c>
@@ -14134,7 +14134,7 @@
       </c>
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>23</v>
       </c>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>23</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>23</v>
       </c>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>23</v>
       </c>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="G388" s="1"/>
     </row>
-    <row r="389" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>572</v>
       </c>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="G400" s="1"/>
     </row>
-    <row r="401" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>583</v>
       </c>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="G406" s="1"/>
     </row>
-    <row r="407" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>23</v>
       </c>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="G418" s="1"/>
     </row>
-    <row r="419" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>936875999</v>
       </c>
@@ -15371,7 +15371,7 @@
       </c>
       <c r="G421" s="1"/>
     </row>
-    <row r="422" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>601</v>
       </c>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="G428" s="1"/>
     </row>
-    <row r="429" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>23</v>
       </c>
@@ -15561,7 +15561,7 @@
       </c>
       <c r="G431" s="1"/>
     </row>
-    <row r="432" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>23</v>
       </c>
@@ -15753,7 +15753,7 @@
       </c>
       <c r="G441" s="1"/>
     </row>
-    <row r="442" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>620</v>
       </c>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="G442" s="1"/>
     </row>
-    <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>23</v>
       </c>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="G446" s="1"/>
     </row>
-    <row r="447" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>23</v>
       </c>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="G452" s="1"/>
     </row>
-    <row r="453" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>236</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="G454" s="1"/>
     </row>
-    <row r="455" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>23</v>
       </c>
@@ -16053,7 +16053,7 @@
       </c>
       <c r="G457" s="1"/>
     </row>
-    <row r="458" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>76</v>
       </c>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="G458" s="1"/>
     </row>
-    <row r="459" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>23</v>
       </c>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="G459" s="1"/>
     </row>
-    <row r="460" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>23</v>
       </c>
@@ -16224,7 +16224,7 @@
       </c>
       <c r="G466" s="1"/>
     </row>
-    <row r="467" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>23</v>
       </c>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="G470" s="1"/>
     </row>
-    <row r="471" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>23</v>
       </c>
@@ -16338,7 +16338,7 @@
       </c>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>76</v>
       </c>
@@ -16490,7 +16490,7 @@
       </c>
       <c r="G480" s="1"/>
     </row>
-    <row r="481" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>23</v>
       </c>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="G481" s="1"/>
     </row>
-    <row r="482" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>23</v>
       </c>
@@ -16528,7 +16528,7 @@
       </c>
       <c r="G482" s="1"/>
     </row>
-    <row r="483" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>23</v>
       </c>
@@ -16547,7 +16547,7 @@
       </c>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>23</v>
       </c>
@@ -16680,7 +16680,7 @@
       </c>
       <c r="G490" s="1"/>
     </row>
-    <row r="491" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>381</v>
       </c>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="G507" s="1"/>
     </row>
-    <row r="508" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>620</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="G513" s="1"/>
     </row>
-    <row r="514" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>23</v>
       </c>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="G519" s="1"/>
     </row>
-    <row r="520" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>76</v>
       </c>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="G520" s="1"/>
     </row>
-    <row r="521" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>679</v>
       </c>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="G521" s="1"/>
     </row>
-    <row r="522" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>76</v>
       </c>
@@ -17328,7 +17328,7 @@
       </c>
       <c r="G524" s="1"/>
     </row>
-    <row r="525" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>23</v>
       </c>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="G525" s="1"/>
     </row>
-    <row r="526" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>23</v>
       </c>
@@ -17385,7 +17385,7 @@
       </c>
       <c r="G527" s="1"/>
     </row>
-    <row r="528" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>76</v>
       </c>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="G536" s="1"/>
     </row>
-    <row r="537" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>691</v>
       </c>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>717</v>
       </c>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="G570" s="1"/>
     </row>
-    <row r="571" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>23</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="G576" s="1"/>
     </row>
-    <row r="577" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>729</v>
       </c>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="G589" s="1"/>
     </row>
-    <row r="590" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>23</v>
       </c>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="G595" s="1"/>
     </row>
-    <row r="596" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>23</v>
       </c>
@@ -18753,7 +18753,7 @@
       </c>
       <c r="G599" s="1"/>
     </row>
-    <row r="600" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>23</v>
       </c>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="G602" s="1"/>
     </row>
-    <row r="603" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>753</v>
       </c>
@@ -18968,7 +18968,7 @@
       </c>
       <c r="G610" s="1"/>
     </row>
-    <row r="611" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>23</v>
       </c>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="G614" s="1"/>
     </row>
-    <row r="615" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>23</v>
       </c>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="G622" s="1"/>
     </row>
-    <row r="623" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>23</v>
       </c>
@@ -19240,7 +19240,7 @@
       </c>
       <c r="G624" s="1"/>
     </row>
-    <row r="625" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>23</v>
       </c>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="G627" s="1"/>
     </row>
-    <row r="628" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>23</v>
       </c>
@@ -19354,7 +19354,7 @@
       </c>
       <c r="G630" s="1"/>
     </row>
-    <row r="631" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>775</v>
       </c>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="G641" s="1"/>
     </row>
-    <row r="642" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>572</v>
       </c>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="G643" s="1"/>
     </row>
-    <row r="644" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>23</v>
       </c>
@@ -19658,7 +19658,7 @@
       </c>
       <c r="G646" s="1"/>
     </row>
-    <row r="647" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>258</v>
       </c>
@@ -19812,7 +19812,7 @@
       </c>
       <c r="G654" s="1"/>
     </row>
-    <row r="655" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>236</v>
       </c>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="G657" s="1"/>
     </row>
-    <row r="658" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>236</v>
       </c>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="G667" s="1"/>
     </row>
-    <row r="668" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>258</v>
       </c>
@@ -20258,7 +20258,7 @@
       </c>
       <c r="G678" s="1"/>
     </row>
-    <row r="679" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>258</v>
       </c>
@@ -20317,7 +20317,7 @@
       </c>
       <c r="G681" s="1"/>
     </row>
-    <row r="682" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>258</v>
       </c>
@@ -20679,6 +20679,12 @@
         <v>3.5879629629629629E-4</v>
       </c>
       <c r="G700" s="1"/>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <f>COUNTIF(A2:A699,"action_outside")</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20690,7 +20696,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngduc\PycharmProjects\conversations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5B4852-1AAB-40A4-BC43-81F6E9724345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B88B3-3247-441D-815B-38CDEC91D584}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2688,12 +2688,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2726,7 +2732,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2739,6 +2745,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3047,7 +3056,7 @@
   <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,7 +3065,7 @@
     <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
   </cols>
@@ -3148,7 +3157,7 @@
       <c r="D5" s="4">
         <v>43323.464386574073</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>12</v>
       </c>
       <c r="F5" s="5">
@@ -3165,11 +3174,14 @@
       <c r="D6" s="4">
         <v>43323.464687500003</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>26</v>
       </c>
       <c r="F6" s="5">
         <v>3.0092592592592589E-4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3233,7 +3245,7 @@
       <c r="D10" s="4">
         <v>43323.46502314815</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>7</v>
       </c>
       <c r="F10" s="5">
@@ -3250,7 +3262,7 @@
       <c r="D11" s="4">
         <v>43323.465243055558</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>19</v>
       </c>
       <c r="F11" s="5">
@@ -3369,7 +3381,7 @@
       <c r="D18" s="4">
         <v>43323.466319444437</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>2</v>
       </c>
       <c r="F18" s="5">
@@ -3386,7 +3398,7 @@
       <c r="D19" s="4">
         <v>43323.466481481482</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>14</v>
       </c>
       <c r="F19" s="5">
@@ -3410,7 +3422,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -3420,7 +3432,7 @@
       <c r="D21" s="4">
         <v>43323.467118055552</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>49</v>
       </c>
       <c r="F21" s="5">
@@ -3437,7 +3449,7 @@
       <c r="D22" s="4">
         <v>43323.467314814807</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>17</v>
       </c>
       <c r="F22" s="5">
@@ -3505,7 +3517,7 @@
       <c r="D26" s="4">
         <v>43323.468148148153</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>62</v>
       </c>
       <c r="F26" s="5">
@@ -3522,7 +3534,7 @@
       <c r="D27" s="4">
         <v>43323.468229166669</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>7</v>
       </c>
       <c r="F27" s="5">
@@ -3607,7 +3619,7 @@
       <c r="D32" s="4">
         <v>43323.473564814813</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <v>159</v>
       </c>
       <c r="F32" s="5">
@@ -3624,7 +3636,7 @@
       <c r="D33" s="4">
         <v>43323.474085648151</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <v>45</v>
       </c>
       <c r="F33" s="5">
@@ -3658,7 +3670,7 @@
       <c r="D35" s="4">
         <v>43323.474351851852</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="6">
         <v>16</v>
       </c>
       <c r="F35" s="5">
@@ -3675,7 +3687,7 @@
       <c r="D36" s="4">
         <v>43323.474502314813</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <v>13</v>
       </c>
       <c r="F36" s="5">
@@ -3716,7 +3728,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -3726,7 +3738,7 @@
       <c r="D39" s="4">
         <v>43323.474664351852</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <v>3</v>
       </c>
       <c r="F39" s="5">
@@ -3743,7 +3755,7 @@
       <c r="D40" s="4">
         <v>43323.474675925929</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="5">
@@ -3767,7 +3779,7 @@
         <v>1.6203703703703701E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -3828,7 +3840,7 @@
       <c r="D45" s="4">
         <v>43323.68172453704</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="5">
@@ -3845,7 +3857,7 @@
       <c r="D46" s="4">
         <v>43323.681990740741</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="6">
         <v>23</v>
       </c>
       <c r="F46" s="5">
@@ -3862,7 +3874,7 @@
       <c r="D47" s="4">
         <v>43323.682002314818</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="5">
@@ -3879,14 +3891,14 @@
       <c r="D48" s="4">
         <v>43323.682152777779</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="6">
         <v>13</v>
       </c>
       <c r="F48" s="5">
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3896,7 +3908,7 @@
       <c r="D49" s="4">
         <v>43323.682476851849</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="6">
         <v>28</v>
       </c>
       <c r="F49" s="5">
@@ -3913,7 +3925,7 @@
       <c r="D50" s="4">
         <v>43323.683368055557</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="6">
         <v>77</v>
       </c>
       <c r="F50" s="5">
@@ -4001,7 +4013,7 @@
       <c r="D55" s="4">
         <v>43327.582835648151</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <v>9</v>
       </c>
       <c r="F55" s="5">
@@ -4018,7 +4030,7 @@
       <c r="D56" s="4">
         <v>43327.596006944441</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="6">
         <v>1138</v>
       </c>
       <c r="F56" s="5">
@@ -4059,7 +4071,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
@@ -4123,7 +4135,7 @@
       <c r="D62" s="4">
         <v>43333.930810185193</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="6">
         <v>4</v>
       </c>
       <c r="F62" s="5">
@@ -4140,7 +4152,7 @@
       <c r="D63" s="4">
         <v>43334.694039351853</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="6">
         <v>65943</v>
       </c>
       <c r="F63" s="5">
@@ -4242,7 +4254,7 @@
       <c r="D69" s="4">
         <v>43365.756643518522</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="6">
         <v>12</v>
       </c>
       <c r="F69" s="5">
@@ -4259,7 +4271,7 @@
       <c r="D70" s="4">
         <v>43365.75675925926</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="6">
         <v>10</v>
       </c>
       <c r="F70" s="5">
@@ -4442,7 +4454,7 @@
         <v>1.273148148148148E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>76</v>
       </c>
@@ -4697,7 +4709,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>90</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>1.7361111111111109E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>6.8287037037037036E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>139</v>
       </c>
@@ -5638,7 +5650,7 @@
         <v>1.6203703703703701E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>23</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>144</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>3.622685185185185E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>23</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>23</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>176</v>
       </c>
@@ -6245,7 +6257,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>177</v>
       </c>
@@ -7341,8 +7353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G703"/>
   <sheetViews>
-    <sheetView topLeftCell="A695" workbookViewId="0">
-      <selection activeCell="A703" sqref="A703"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conversations.xlsx
+++ b/conversations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngduc\PycharmProjects\conversations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B88B3-3247-441D-815B-38CDEC91D584}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B84ADD-DB32-44A5-8C3A-673666AE5BD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="859">
   <si>
     <t>customer</t>
   </si>
@@ -2664,6 +2664,54 @@
   </si>
   <si>
     <t xml:space="preserve">Motivations </t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>xe đẩy, máy hút sữa,bình sữa</t>
+  </si>
+  <si>
+    <t>Không có hướng dẫn sử dụng sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobbies </t>
+  </si>
+  <si>
+    <t>Sử dụng trong gia đình</t>
+  </si>
+  <si>
+    <t>thương hiệu Medela</t>
+  </si>
+  <si>
+    <t>0904187093, 0984898000</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>park 11 times city; 362 phố Huế</t>
+  </si>
+  <si>
+    <t>15 dãy 16a7 làng việt kiều châu âu, mộ lao, hà đông;  12 chùa bộc ; 36 ngõ 442 ngách 442/15/28 vĩnh hưng</t>
+  </si>
+  <si>
+    <t>0936875999, 0943579681, 0988928512</t>
+  </si>
+  <si>
+    <t>Cần thông tin chi tiết của sản phẩm</t>
+  </si>
+  <si>
+    <t>xe đẩy, ghế ăn em bé</t>
+  </si>
+  <si>
+    <t>màu hồng</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2780,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2750,6 +2798,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3055,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,8 +7403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G703"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7760,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>936875999</v>
       </c>
@@ -7843,7 +7893,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>258</v>
       </c>
@@ -8280,7 +8330,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
@@ -8664,7 +8714,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>23</v>
       </c>
@@ -8858,7 +8908,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -9192,7 +9242,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -9232,7 +9282,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>323</v>
       </c>
@@ -10389,7 +10439,7 @@
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>236</v>
       </c>
@@ -20705,43 +20755,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C02EDA-1C6E-4F46-A0AA-0C36C898044D}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1" t="s">
         <v>839</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1" t="s">
         <v>840</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>841</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="E2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>838</v>
+      </c>
+      <c r="B3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="E3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H3" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
